--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/CALIFORNIA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/CALIFORNIA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2341"/>
+  <dimension ref="A1:D2335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C42">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C45">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C47">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C57">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C63">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C89">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C93">
@@ -1642,7 +1642,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C97">
@@ -1798,7 +1798,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C109">
@@ -1811,7 +1811,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C110">
@@ -2427,7 +2427,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C157">
@@ -2557,7 +2557,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C167">
@@ -2596,7 +2596,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C170">
@@ -2921,7 +2921,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C195">
@@ -2934,7 +2934,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C196">
@@ -2947,7 +2947,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C197">
@@ -3051,7 +3051,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C205">
@@ -3290,7 +3290,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C223">
@@ -3477,7 +3477,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C237">
@@ -3503,7 +3503,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3560,7 +3560,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C243">
@@ -3760,7 +3760,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C258">
@@ -3942,7 +3942,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C272">
@@ -3994,7 +3994,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C276">
@@ -4085,7 +4085,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C283">
@@ -4098,7 +4098,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C284">
@@ -4111,7 +4111,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C285">
@@ -4124,7 +4124,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C286">
@@ -4254,12 +4254,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C296">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C299">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C300">
@@ -4324,7 +4324,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C301">
@@ -4415,7 +4415,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C308">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C316">
@@ -4597,7 +4597,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C322">
@@ -4688,7 +4688,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C329">
@@ -4792,7 +4792,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C337">
@@ -4805,7 +4805,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C338">
@@ -5026,7 +5026,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C355">
@@ -5208,7 +5208,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C369">
@@ -5221,7 +5221,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C370">
@@ -5234,7 +5234,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C371">
@@ -5260,7 +5260,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C373">
@@ -5286,7 +5286,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C375">
@@ -5403,7 +5403,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C384">
@@ -5416,7 +5416,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C385">
@@ -5598,7 +5598,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C399">
@@ -5676,7 +5676,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C405">
@@ -5689,7 +5689,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C406">
@@ -5702,7 +5702,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C407">
@@ -5715,7 +5715,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C408">
@@ -5889,7 +5889,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C421">
@@ -5902,7 +5902,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C422">
@@ -5915,7 +5915,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C423">
@@ -6019,7 +6019,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C431">
@@ -6039,7 +6039,7 @@
         <v>216</v>
       </c>
       <c r="D432">
-        <v>0.0009152193348558741</v>
+        <v>0.000915219334855874</v>
       </c>
     </row>
     <row r="433">
@@ -6071,7 +6071,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C435">
@@ -6175,7 +6175,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C443">
@@ -6227,7 +6227,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C447">
@@ -6253,7 +6253,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C449">
@@ -6279,7 +6279,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C451">
@@ -6305,7 +6305,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C453">
@@ -6331,7 +6331,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C455">
@@ -6396,7 +6396,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C460">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C466">
@@ -6518,7 +6518,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C469">
@@ -6531,14 +6531,14 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C470">
         <v>235</v>
       </c>
       <c r="D470">
-        <v>0.0009957247393107889</v>
+        <v>0.0009957247393107887</v>
       </c>
     </row>
     <row r="471">
@@ -6583,7 +6583,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C474">
@@ -6596,7 +6596,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C475">
@@ -6622,7 +6622,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C477">
@@ -6635,7 +6635,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C478">
@@ -6674,7 +6674,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C481">
@@ -6687,7 +6687,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C482">
@@ -6700,7 +6700,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C483">
@@ -6713,7 +6713,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C484">
@@ -6778,7 +6778,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C489">
@@ -6791,7 +6791,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C490">
@@ -6843,7 +6843,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C494">
@@ -6856,7 +6856,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C495">
@@ -6934,7 +6934,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C501">
@@ -6947,7 +6947,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C502">
@@ -6973,7 +6973,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C504">
@@ -6986,7 +6986,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C505">
@@ -7012,7 +7012,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C507">
@@ -7051,7 +7051,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C510">
@@ -7220,7 +7220,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C523">
@@ -7246,7 +7246,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C525">
@@ -7272,7 +7272,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C527">
@@ -7298,7 +7298,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C529">
@@ -7344,13 +7344,13 @@
         <v>226</v>
       </c>
       <c r="D532">
-        <v>0.0009575906003584609</v>
+        <v>0.0009575906003584608</v>
       </c>
     </row>
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C533">
@@ -7363,7 +7363,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C534">
@@ -7474,7 +7474,7 @@
         <v>21387</v>
       </c>
       <c r="D542">
-        <v>0.09061942553038231</v>
+        <v>0.09061942553038232</v>
       </c>
     </row>
     <row r="543">
@@ -7524,7 +7524,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C546">
@@ -7615,7 +7615,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C553">
@@ -7628,7 +7628,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C554">
@@ -7706,7 +7706,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C560">
@@ -7784,7 +7784,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C566">
@@ -7836,7 +7836,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C570">
@@ -7875,7 +7875,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C573">
@@ -7966,7 +7966,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C580">
@@ -7979,7 +7979,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C581">
@@ -7992,7 +7992,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C582">
@@ -8005,7 +8005,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C583">
@@ -8018,7 +8018,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C584">
@@ -8044,7 +8044,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C586">
@@ -8057,7 +8057,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C587">
@@ -8070,7 +8070,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C588">
@@ -8109,7 +8109,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C591">
@@ -8187,7 +8187,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C597">
@@ -8200,7 +8200,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C598">
@@ -8252,7 +8252,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C602">
@@ -8278,7 +8278,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C604">
@@ -8291,7 +8291,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C605">
@@ -8330,7 +8330,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C608">
@@ -8447,7 +8447,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C617">
@@ -8460,7 +8460,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C618">
@@ -8473,7 +8473,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C619">
@@ -8525,7 +8525,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C623">
@@ -8538,7 +8538,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C624">
@@ -8608,7 +8608,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C629">
@@ -8621,7 +8621,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C630">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C635">
@@ -8725,7 +8725,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C638">
@@ -8751,7 +8751,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C640">
@@ -8823,13 +8823,13 @@
         <v>236</v>
       </c>
       <c r="D645">
-        <v>0.0009999618658610477</v>
+        <v>0.0009999618658610475</v>
       </c>
     </row>
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C646">
@@ -8920,7 +8920,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C653">
@@ -8933,7 +8933,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C654">
@@ -8966,7 +8966,7 @@
         <v>235</v>
       </c>
       <c r="D656">
-        <v>0.0009957247393107889</v>
+        <v>0.0009957247393107887</v>
       </c>
     </row>
     <row r="657">
@@ -9050,7 +9050,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C663">
@@ -9141,7 +9141,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C670">
@@ -9154,7 +9154,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C671">
@@ -9167,7 +9167,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C672">
@@ -9219,7 +9219,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C676">
@@ -9297,7 +9297,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C682">
@@ -9310,7 +9310,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C683">
@@ -9414,7 +9414,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C691">
@@ -9479,7 +9479,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C696">
@@ -9492,7 +9492,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C697">
@@ -9518,7 +9518,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C699">
@@ -9531,7 +9531,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C700">
@@ -9570,7 +9570,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C703">
@@ -9596,7 +9596,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C705">
@@ -9609,7 +9609,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C706">
@@ -9622,7 +9622,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C707">
@@ -9635,7 +9635,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C708">
@@ -9674,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C711">
@@ -9687,7 +9687,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C712">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C715">
@@ -9778,20 +9778,20 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C719">
         <v>216</v>
       </c>
       <c r="D719">
-        <v>0.0009152193348558741</v>
+        <v>0.000915219334855874</v>
       </c>
     </row>
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C720">
@@ -9830,7 +9830,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C723">
@@ -9843,7 +9843,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C724">
@@ -9999,7 +9999,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C736">
@@ -10012,7 +10012,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C737">
@@ -10025,7 +10025,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C738">
@@ -10038,7 +10038,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C739">
@@ -10103,7 +10103,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C744">
@@ -10116,7 +10116,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C745">
@@ -10155,7 +10155,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C748">
@@ -10168,7 +10168,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C749">
@@ -10181,7 +10181,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C750">
@@ -10524,7 +10524,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C776">
@@ -10550,7 +10550,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C778">
@@ -11142,7 +11142,7 @@
         <v>226</v>
       </c>
       <c r="D823">
-        <v>0.0009575906003584609</v>
+        <v>0.0009575906003584608</v>
       </c>
     </row>
     <row r="824">
@@ -11421,7 +11421,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C845">
@@ -11764,7 +11764,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C871">
@@ -11868,7 +11868,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C879">
@@ -11920,7 +11920,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C883">
@@ -11998,7 +11998,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C889">
@@ -12024,7 +12024,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C891">
@@ -12128,7 +12128,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C899">
@@ -12185,7 +12185,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C903">
@@ -12198,7 +12198,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C904">
@@ -12250,7 +12250,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C908">
@@ -12341,7 +12341,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C915">
@@ -12736,7 +12736,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C945">
@@ -12788,7 +12788,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C949">
@@ -12871,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C955">
@@ -12975,7 +12975,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C963">
@@ -13027,7 +13027,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C967">
@@ -13053,7 +13053,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C969">
@@ -13066,7 +13066,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C970">
@@ -13079,7 +13079,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C971">
@@ -13118,7 +13118,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C974">
@@ -13157,7 +13157,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C977">
@@ -13196,7 +13196,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C980">
@@ -13209,7 +13209,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C981">
@@ -13222,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C982">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C983">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C984">
@@ -13261,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C985">
@@ -13287,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C987">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C988">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C989">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C990">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C991">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C992">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C994">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C995">
@@ -13560,7 +13560,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1008">
@@ -13586,7 +13586,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1010">
@@ -13599,7 +13599,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1011">
@@ -13625,7 +13625,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1013">
@@ -13651,7 +13651,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1015">
@@ -13664,7 +13664,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1016">
@@ -13716,7 +13716,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1020">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1022">
@@ -13755,7 +13755,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1023">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1024">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1026">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1027">
@@ -13833,7 +13833,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1029">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C1034">
@@ -14158,7 +14158,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1054">
@@ -14197,7 +14197,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1057">
@@ -14288,7 +14288,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1064">
@@ -14496,7 +14496,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1080">
@@ -14548,7 +14548,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1084">
@@ -14639,7 +14639,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1091">
@@ -14977,7 +14977,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1117">
@@ -14990,7 +14990,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1118">
@@ -15133,7 +15133,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1129">
@@ -15315,7 +15315,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1143">
@@ -15328,7 +15328,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1144">
@@ -15341,7 +15341,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1145">
@@ -15861,7 +15861,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1185">
@@ -15965,7 +15965,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1193">
@@ -16173,7 +16173,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1209">
@@ -16186,7 +16186,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C1210">
@@ -16212,7 +16212,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1212">
@@ -16537,7 +16537,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1237">
@@ -16641,7 +16641,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1245">
@@ -16992,7 +16992,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1272">
@@ -17005,7 +17005,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1273">
@@ -17018,7 +17018,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1274">
@@ -17220,7 +17220,7 @@
         <v>218</v>
       </c>
       <c r="D1289">
-        <v>0.0009236935879563915</v>
+        <v>0.0009236935879563916</v>
       </c>
     </row>
     <row r="1290">
@@ -17278,7 +17278,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1294">
@@ -17512,7 +17512,7 @@
     <row r="1312">
       <c r="B1312" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1312">
@@ -17577,7 +17577,7 @@
     <row r="1317">
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1317">
@@ -17642,7 +17642,7 @@
     <row r="1322">
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1322">
@@ -17655,7 +17655,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1323">
@@ -17681,7 +17681,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1325">
@@ -17863,7 +17863,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1339">
@@ -17876,7 +17876,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1340">
@@ -17980,7 +17980,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1348">
@@ -18006,7 +18006,7 @@
     <row r="1350">
       <c r="B1350" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C1350">
@@ -18526,7 +18526,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1390">
@@ -19072,7 +19072,7 @@
     <row r="1432">
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1432">
@@ -19410,7 +19410,7 @@
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1458">
@@ -19436,7 +19436,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1460">
@@ -19449,7 +19449,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1461">
@@ -19475,7 +19475,7 @@
     <row r="1463">
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1463">
@@ -19488,7 +19488,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1464">
@@ -19501,7 +19501,7 @@
     <row r="1465">
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1465">
@@ -19514,7 +19514,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1466">
@@ -19540,7 +19540,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1468">
@@ -19553,7 +19553,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1469">
@@ -19566,7 +19566,7 @@
     <row r="1470">
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1470">
@@ -19592,7 +19592,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1472">
@@ -19605,7 +19605,7 @@
     <row r="1473">
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1473">
@@ -19657,7 +19657,7 @@
     <row r="1477">
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1477">
@@ -19670,7 +19670,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1478">
@@ -19683,7 +19683,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1479">
@@ -19696,7 +19696,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1480">
@@ -19709,7 +19709,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1481">
@@ -19748,7 +19748,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1484">
@@ -19761,7 +19761,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1485">
@@ -19800,7 +19800,7 @@
     <row r="1488">
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1488">
@@ -19813,7 +19813,7 @@
     <row r="1489">
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1489">
@@ -19852,7 +19852,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1492">
@@ -19872,7 +19872,7 @@
         <v>23413</v>
       </c>
       <c r="D1493">
-        <v>0.09920384392120639</v>
+        <v>0.0992038439212064</v>
       </c>
     </row>
     <row r="1494">
@@ -20195,7 +20195,7 @@
     <row r="1518">
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1518">
@@ -20273,7 +20273,7 @@
     <row r="1524">
       <c r="B1524" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1524">
@@ -20416,7 +20416,7 @@
     <row r="1535">
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1535">
@@ -20559,7 +20559,7 @@
     <row r="1546">
       <c r="B1546" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1546">
@@ -20611,7 +20611,7 @@
     <row r="1550">
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1550">
@@ -20624,7 +20624,7 @@
     <row r="1551">
       <c r="B1551" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1551">
@@ -20832,7 +20832,7 @@
     <row r="1567">
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1567">
@@ -20845,7 +20845,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1568">
@@ -20910,7 +20910,7 @@
     <row r="1573">
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1573">
@@ -20936,7 +20936,7 @@
     <row r="1575">
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1575">
@@ -20975,7 +20975,7 @@
     <row r="1578">
       <c r="B1578" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1578">
@@ -21118,7 +21118,7 @@
     <row r="1589">
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1589">
@@ -21131,7 +21131,7 @@
     <row r="1590">
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1590">
@@ -21300,7 +21300,7 @@
     <row r="1603">
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1603">
@@ -21430,7 +21430,7 @@
     <row r="1613">
       <c r="B1613" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1613">
@@ -21651,7 +21651,7 @@
     <row r="1630">
       <c r="B1630" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1630">
@@ -21703,7 +21703,7 @@
     <row r="1634">
       <c r="B1634" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1634">
@@ -21716,7 +21716,7 @@
     <row r="1635">
       <c r="B1635" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1635">
@@ -21833,7 +21833,7 @@
     <row r="1644">
       <c r="B1644" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1644">
@@ -21937,7 +21937,7 @@
     <row r="1652">
       <c r="B1652" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1652">
@@ -21950,7 +21950,7 @@
     <row r="1653">
       <c r="B1653" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1653">
@@ -21963,7 +21963,7 @@
     <row r="1654">
       <c r="B1654" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1654">
@@ -22041,7 +22041,7 @@
     <row r="1660">
       <c r="B1660" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1660">
@@ -22067,7 +22067,7 @@
     <row r="1662">
       <c r="B1662" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1662">
@@ -22080,7 +22080,7 @@
     <row r="1663">
       <c r="B1663" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1663">
@@ -22093,7 +22093,7 @@
     <row r="1664">
       <c r="B1664" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1664">
@@ -22158,14 +22158,14 @@
     <row r="1669">
       <c r="B1669" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1669">
         <v>228</v>
       </c>
       <c r="D1669">
-        <v>0.0009660648534589783</v>
+        <v>0.0009660648534589784</v>
       </c>
     </row>
     <row r="1670">
@@ -22314,7 +22314,7 @@
     <row r="1681">
       <c r="B1681" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1681">
@@ -22340,7 +22340,7 @@
     <row r="1683">
       <c r="B1683" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1683">
@@ -22392,7 +22392,7 @@
     <row r="1687">
       <c r="B1687" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1687">
@@ -22470,7 +22470,7 @@
     <row r="1693">
       <c r="B1693" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1693">
@@ -22574,7 +22574,7 @@
     <row r="1701">
       <c r="B1701" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1701">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1710">
@@ -22722,7 +22722,7 @@
     <row r="1712">
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1712">
@@ -22800,7 +22800,7 @@
     <row r="1718">
       <c r="B1718" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1718">
@@ -22813,7 +22813,7 @@
     <row r="1719">
       <c r="B1719" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1719">
@@ -22852,7 +22852,7 @@
     <row r="1722">
       <c r="B1722" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1722">
@@ -22891,7 +22891,7 @@
     <row r="1725">
       <c r="B1725" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1725">
@@ -23096,7 +23096,7 @@
     <row r="1740">
       <c r="B1740" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1740">
@@ -23109,7 +23109,7 @@
     <row r="1741">
       <c r="B1741" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1741">
@@ -23187,7 +23187,7 @@
     <row r="1747">
       <c r="B1747" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1747">
@@ -23317,7 +23317,7 @@
     <row r="1757">
       <c r="B1757" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1757">
@@ -23395,7 +23395,7 @@
     <row r="1763">
       <c r="B1763" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1763">
@@ -23473,7 +23473,7 @@
     <row r="1769">
       <c r="B1769" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1769">
@@ -23499,7 +23499,7 @@
     <row r="1771">
       <c r="B1771" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1771">
@@ -23603,7 +23603,7 @@
     <row r="1779">
       <c r="B1779" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1779">
@@ -23655,7 +23655,7 @@
     <row r="1783">
       <c r="B1783" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1783">
@@ -23668,7 +23668,7 @@
     <row r="1784">
       <c r="B1784" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1784">
@@ -23681,7 +23681,7 @@
     <row r="1785">
       <c r="B1785" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1785">
@@ -23694,7 +23694,7 @@
     <row r="1786">
       <c r="B1786" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1786">
@@ -23707,7 +23707,7 @@
     <row r="1787">
       <c r="B1787" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1787">
@@ -23720,7 +23720,7 @@
     <row r="1788">
       <c r="B1788" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1788">
@@ -23927,7 +23927,7 @@
         <v>218</v>
       </c>
       <c r="D1803">
-        <v>0.0009236935879563915</v>
+        <v>0.0009236935879563916</v>
       </c>
     </row>
     <row r="1804">
@@ -24005,7 +24005,7 @@
         <v>226</v>
       </c>
       <c r="D1809">
-        <v>0.0009575906003584609</v>
+        <v>0.0009575906003584608</v>
       </c>
     </row>
     <row r="1810">
@@ -24562,7 +24562,7 @@
     <row r="1852">
       <c r="B1852" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1852">
@@ -24692,7 +24692,7 @@
     <row r="1862">
       <c r="B1862" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1862">
@@ -24731,7 +24731,7 @@
     <row r="1865">
       <c r="B1865" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1865">
@@ -25009,7 +25009,7 @@
     <row r="1886">
       <c r="B1886" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1886">
@@ -25591,7 +25591,7 @@
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1930">
@@ -25617,7 +25617,7 @@
     <row r="1932">
       <c r="B1932" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1932">
@@ -25630,7 +25630,7 @@
     <row r="1933">
       <c r="B1933" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1933">
@@ -25702,13 +25702,13 @@
         <v>216</v>
       </c>
       <c r="D1938">
-        <v>0.0009152193348558741</v>
+        <v>0.000915219334855874</v>
       </c>
     </row>
     <row r="1939">
       <c r="B1939" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1939">
@@ -25812,7 +25812,7 @@
     <row r="1947">
       <c r="B1947" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1947">
@@ -25864,7 +25864,7 @@
     <row r="1951">
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1951">
@@ -25877,7 +25877,7 @@
     <row r="1952">
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1952">
@@ -25890,7 +25890,7 @@
     <row r="1953">
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1953">
@@ -25929,7 +25929,7 @@
     <row r="1956">
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1956">
@@ -26007,7 +26007,7 @@
     <row r="1962">
       <c r="B1962" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1962">
@@ -26020,7 +26020,7 @@
     <row r="1963">
       <c r="B1963" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1963">
@@ -26137,7 +26137,7 @@
     <row r="1972">
       <c r="B1972" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1972">
@@ -26176,7 +26176,7 @@
     <row r="1975">
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1975">
@@ -26332,7 +26332,7 @@
     <row r="1987">
       <c r="B1987" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1987">
@@ -26467,7 +26467,7 @@
     <row r="1997">
       <c r="B1997" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1997">
@@ -26519,7 +26519,7 @@
     <row r="2001">
       <c r="B2001" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C2001">
@@ -26675,7 +26675,7 @@
     <row r="2013">
       <c r="B2013" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C2013">
@@ -26701,7 +26701,7 @@
     <row r="2015">
       <c r="B2015" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C2015">
@@ -26753,7 +26753,7 @@
     <row r="2019">
       <c r="B2019" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C2019">
@@ -26779,7 +26779,7 @@
     <row r="2021">
       <c r="B2021" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C2021">
@@ -26883,7 +26883,7 @@
     <row r="2029">
       <c r="B2029" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C2029">
@@ -27052,7 +27052,7 @@
     <row r="2042">
       <c r="B2042" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C2042">
@@ -27065,7 +27065,7 @@
     <row r="2043">
       <c r="B2043" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C2043">
@@ -27286,7 +27286,7 @@
     <row r="2060">
       <c r="B2060" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C2060">
@@ -27299,7 +27299,7 @@
     <row r="2061">
       <c r="B2061" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C2061">
@@ -27312,7 +27312,7 @@
     <row r="2062">
       <c r="B2062" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C2062">
@@ -27364,7 +27364,7 @@
     <row r="2066">
       <c r="B2066" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C2066">
@@ -27377,7 +27377,7 @@
     <row r="2067">
       <c r="B2067" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C2067">
@@ -27390,7 +27390,7 @@
     <row r="2068">
       <c r="B2068" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C2068">
@@ -27403,7 +27403,7 @@
     <row r="2069">
       <c r="B2069" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C2069">
@@ -27559,7 +27559,7 @@
     <row r="2081">
       <c r="B2081" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C2081">
@@ -27598,7 +27598,7 @@
     <row r="2084">
       <c r="B2084" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C2084">
@@ -27637,7 +27637,7 @@
     <row r="2087">
       <c r="B2087" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C2087">
@@ -27650,7 +27650,7 @@
     <row r="2088">
       <c r="B2088" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C2088">
@@ -27702,7 +27702,7 @@
     <row r="2092">
       <c r="B2092" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C2092">
@@ -27741,7 +27741,7 @@
     <row r="2095">
       <c r="B2095" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C2095">
@@ -27793,7 +27793,7 @@
     <row r="2099">
       <c r="B2099" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C2099">
@@ -27819,7 +27819,7 @@
     <row r="2101">
       <c r="B2101" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C2101">
@@ -27949,7 +27949,7 @@
     <row r="2111">
       <c r="B2111" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C2111">
@@ -28001,7 +28001,7 @@
     <row r="2115">
       <c r="B2115" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C2115">
@@ -28014,7 +28014,7 @@
     <row r="2116">
       <c r="B2116" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C2116">
@@ -28066,7 +28066,7 @@
     <row r="2120">
       <c r="B2120" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C2120">
@@ -28196,7 +28196,7 @@
     <row r="2130">
       <c r="B2130" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C2130">
@@ -28248,7 +28248,7 @@
     <row r="2134">
       <c r="B2134" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C2134">
@@ -28339,7 +28339,7 @@
     <row r="2141">
       <c r="B2141" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C2141">
@@ -28638,7 +28638,7 @@
     <row r="2164">
       <c r="B2164" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C2164">
@@ -28820,7 +28820,7 @@
     <row r="2178">
       <c r="B2178" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C2178">
@@ -28963,7 +28963,7 @@
     <row r="2189">
       <c r="B2189" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C2189">
@@ -28976,7 +28976,7 @@
     <row r="2190">
       <c r="B2190" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C2190">
@@ -29306,7 +29306,7 @@
     <row r="2215">
       <c r="B2215" t="inlineStr">
         <is>
-          <t>Dzilam de Bravo</t>
+          <t>Dzilam De Bravo</t>
         </is>
       </c>
       <c r="C2215">
@@ -30208,7 +30208,7 @@
     <row r="2284">
       <c r="B2284" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2284">
@@ -30234,7 +30234,7 @@
     <row r="2286">
       <c r="B2286" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2286">
@@ -30260,7 +30260,7 @@
     <row r="2288">
       <c r="B2288" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2288">
@@ -30390,7 +30390,7 @@
     <row r="2298">
       <c r="B2298" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2298">
@@ -30468,7 +30468,7 @@
     <row r="2304">
       <c r="B2304" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2304">
@@ -30533,7 +30533,7 @@
     <row r="2309">
       <c r="B2309" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2309">
@@ -30546,7 +30546,7 @@
     <row r="2310">
       <c r="B2310" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2310">
@@ -30559,7 +30559,7 @@
     <row r="2311">
       <c r="B2311" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2311">
@@ -30696,13 +30696,13 @@
         <v>235</v>
       </c>
       <c r="D2321">
-        <v>0.0009957247393107889</v>
+        <v>0.0009957247393107887</v>
       </c>
     </row>
     <row r="2322">
       <c r="B2322" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2322">
@@ -30715,7 +30715,7 @@
     <row r="2323">
       <c r="B2323" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2323">
@@ -30741,7 +30741,7 @@
     <row r="2325">
       <c r="B2325" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2325">
@@ -30780,7 +30780,7 @@
     <row r="2328">
       <c r="B2328" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2328">
@@ -30879,41 +30879,6 @@
       </c>
       <c r="D2335">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
